--- a/Documentation/Matriz das Comunicações.xlsx
+++ b/Documentation/Matriz das Comunicações.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55149\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0733F3-E804-478C-B279-AD90638A673B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEC721-83EF-4D62-A189-46893074C3A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1613,13 +1613,71 @@
     <xf numFmtId="0" fontId="15" fillId="40" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="1" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="37" borderId="1" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="39" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="39" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1627,80 +1685,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="1" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="37" borderId="1" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="39" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2420,17 +2420,17 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="68" t="s">
@@ -2442,14 +2442,14 @@
       <c r="D12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
@@ -2461,39 +2461,39 @@
       <c r="D13" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="41"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="68" t="s">
@@ -2505,14 +2505,14 @@
       <c r="D17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="38">
@@ -2520,12 +2520,12 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="38">
@@ -2533,26 +2533,26 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
@@ -2564,14 +2564,14 @@
       <c r="D22" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="41" t="s">
@@ -2581,228 +2581,248 @@
         <v>20</v>
       </c>
       <c r="D23" s="41"/>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="40"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="88"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="84"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="81"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="106"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="94"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="81"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="100"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B40:J40"/>
@@ -2811,26 +2831,6 @@
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B16:J16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" location="Informacoes!A1" display="Informações" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2868,7 +2868,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,49 +2896,49 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="108" t="s">
+      <c r="M2" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="107" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="52" t="s">
         <v>34</v>
       </c>
@@ -2951,13 +2951,13 @@
       <c r="H3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="2:17" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B4" s="44">
@@ -3834,7 +3834,7 @@
       <c r="I25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="49" t="s">
         <v>97</v>
       </c>
       <c r="K25" s="55" t="s">
@@ -3891,17 +3891,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3933,22 +3933,23 @@
     <hyperlink ref="J20" r:id="rId21" display="https://github.com/vinicius-hso/api-fatec-2s-gswatcher/blob/Sprint-3/Documentation/Gerenciamento do Escopo_SPRINT_3.pdf" xr:uid="{5C30DD46-BB72-4830-B121-27BC0C99814A}"/>
     <hyperlink ref="J23" r:id="rId22" display="https://github.com/vinicius-hso/api-fatec-2s-gswatcher/blob/Sprint-3/Documentation/Gerenciamento de Custo__SPRINT_3.pdf" xr:uid="{FE380B77-5461-4C09-97CE-44AAD3914309}"/>
     <hyperlink ref="J26" r:id="rId23" display="https://github.com/vinicius-hso/api-fatec-2s-gswatcher/blob/Sprint-3/Documentation/Plano de Gerenciamento de Risco.pdf" xr:uid="{7DA7513D-2B45-4334-8970-A743C9FFA11C}"/>
+    <hyperlink ref="J25" r:id="rId24" display="https://github.com/vinicius-hso/api-fatec-2s-gswatcher/blob/Sprint-3/Documentation/Matriz das Comunica%C3%A7%C3%B5es.xlsx" xr:uid="{5A403198-A03B-4B69-9669-6D36117E7618}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId25"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LMatriz das comunicações&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F
 PMO Escritório de Projetos&amp;RPágina &amp;P de &amp;N
 http://escritoriodeprojetos.com.br</oddFooter>
   </headerFooter>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <drawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2050" r:id="rId27">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId28">
+        <oleObject progId="PBrush" shapeId="2050" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId29">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -3967,7 +3968,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2050" r:id="rId27"/>
+        <oleObject progId="PBrush" shapeId="2050" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4265,9 +4266,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4435,19 +4439,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F023C16-AACF-4D0D-B071-9C130BD3ABA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D646DE-231A-42E1-9347-E7CB0B60D08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4471,9 +4471,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D646DE-231A-42E1-9347-E7CB0B60D08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F023C16-AACF-4D0D-B071-9C130BD3ABA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>